--- a/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
+++ b/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T09:03:10+00:00</t>
+    <t>2025-12-17T09:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
+++ b/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T09:35:57+00:00</t>
+    <t>2025-12-17T09:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
+++ b/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T09:57:45+00:00</t>
+    <t>2025-12-18T09:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
+++ b/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T09:45:01+00:00</t>
+    <t>2025-12-18T14:56:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
+++ b/395-flux---mise-à-jour-du-flux-1---projet-personnalisé/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T14:56:52+00:00</t>
+    <t>2025-12-18T16:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
